--- a/doc/db_design.xlsx
+++ b/doc/db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fighters" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>age</t>
   </si>
@@ -46,9 +46,6 @@
     <t>fotn</t>
   </si>
   <si>
-    <t>ko of the night</t>
-  </si>
-  <si>
     <t>time_format</t>
   </si>
   <si>
@@ -208,12 +205,6 @@
     <t>UFC 1</t>
   </si>
   <si>
-    <t>Featherweight</t>
-  </si>
-  <si>
-    <t>Unan. Dec.</t>
-  </si>
-  <si>
     <t>Punches to Head At Distance</t>
   </si>
   <si>
@@ -229,18 +220,12 @@
     <t>is title fight</t>
   </si>
   <si>
-    <t>fight of the night</t>
-  </si>
-  <si>
     <t>kootn</t>
   </si>
   <si>
     <t>sotn</t>
   </si>
   <si>
-    <t>submission of the night</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -368,6 +353,57 @@
   </si>
   <si>
     <t>(fights involving fighter)</t>
+  </si>
+  <si>
+    <t>event id</t>
+  </si>
+  <si>
+    <t>contender name</t>
+  </si>
+  <si>
+    <t>defender name</t>
+  </si>
+  <si>
+    <t>defender id</t>
+  </si>
+  <si>
+    <t>contender id</t>
+  </si>
+  <si>
+    <t>Nick Diaz</t>
+  </si>
+  <si>
+    <t>George St. Pierre</t>
+  </si>
+  <si>
+    <t>Welterweight</t>
+  </si>
+  <si>
+    <t>TKO</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>winner name</t>
+  </si>
+  <si>
+    <t>winner id</t>
+  </si>
+  <si>
+    <t>loser name</t>
+  </si>
+  <si>
+    <t>loser id</t>
+  </si>
+  <si>
+    <t>is fight of the night</t>
+  </si>
+  <si>
+    <t>is ko of the night</t>
+  </si>
+  <si>
+    <t>is submission of the night</t>
   </si>
 </sst>
 </file>
@@ -424,11 +460,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -436,6 +471,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -770,158 +814,158 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="N2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="R2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U2" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="U1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
         <v>109</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" t="s">
-        <v>114</v>
       </c>
       <c r="I3">
         <v>28</v>
@@ -929,111 +973,111 @@
       <c r="J3">
         <v>2.76</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>43</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>2.23</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>56</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>1.24</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>40</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>63</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>1.24</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <v>18</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <v>4</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <v>0</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1044,212 +1088,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="11" customWidth="1"/>
+    <col min="3" max="5" width="8.28515625" style="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1337</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="11">
+        <v>420</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="11">
+        <v>420</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="11">
+        <v>1337</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="11">
+        <v>3</v>
+      </c>
+      <c r="U3" s="12">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1284,163 +1453,163 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
       <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1469,48 +1638,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/doc/db_design.xlsx
+++ b/doc/db_design.xlsx
@@ -184,9 +184,6 @@
     <t>weight class</t>
   </si>
   <si>
-    <t>finnishing method</t>
-  </si>
-  <si>
     <t>finnishing details</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>is submission of the night</t>
+  </si>
+  <si>
+    <t>finishing method</t>
   </si>
 </sst>
 </file>
@@ -820,61 +820,61 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" t="s">
-        <v>88</v>
-      </c>
       <c r="O1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" t="s">
         <v>96</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>97</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>98</v>
-      </c>
-      <c r="U1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -888,84 +888,84 @@
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="N2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>107</v>
       </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>109</v>
       </c>
       <c r="I3">
         <v>28</v>
@@ -1036,19 +1036,19 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
         <v>31</v>
@@ -1057,7 +1057,7 @@
         <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R4" t="s">
         <v>31</v>
@@ -1077,7 +1077,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,73 +1131,73 @@
         <v>32</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="M1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>54</v>
       </c>
       <c r="R1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="W1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -1208,34 +1208,34 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="M2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>53</v>
@@ -1265,15 +1265,15 @@
         <v>8</v>
       </c>
       <c r="Z2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -1282,40 +1282,40 @@
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" s="11">
         <v>1337</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="11">
         <v>420</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N3" s="11">
         <v>420</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P3" s="11">
         <v>1337</v>
       </c>
       <c r="Q3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="S3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T3" s="11">
         <v>3</v>
@@ -1324,22 +1324,22 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1347,10 +1347,10 @@
         <v>47</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>49</v>
@@ -1359,25 +1359,25 @@
         <v>49</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>49</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>49</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>49</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>49</v>

--- a/doc/db_design.xlsx
+++ b/doc/db_design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>age</t>
   </si>
@@ -31,9 +31,6 @@
     <t>event</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>round</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>fotn</t>
   </si>
   <si>
-    <t>time_format</t>
-  </si>
-  <si>
     <t>title_fight</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>knockdowns</t>
   </si>
   <si>
-    <t>details</t>
-  </si>
-  <si>
     <t>fighter_id</t>
   </si>
   <si>
@@ -178,15 +169,9 @@
     <t>event name</t>
   </si>
   <si>
-    <t>weight_class</t>
-  </si>
-  <si>
     <t>weight class</t>
   </si>
   <si>
-    <t>finnishing details</t>
-  </si>
-  <si>
     <t>rounds fought</t>
   </si>
   <si>
@@ -403,7 +388,13 @@
     <t>is submission of the night</t>
   </si>
   <si>
-    <t>finishing method</t>
+    <t>finish details</t>
+  </si>
+  <si>
+    <t>finish method</t>
+  </si>
+  <si>
+    <t>round_format</t>
   </si>
 </sst>
 </file>
@@ -814,158 +805,158 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" t="s">
         <v>93</v>
-      </c>
-      <c r="R1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="P2" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="S2" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
         <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" t="s">
-        <v>108</v>
       </c>
       <c r="I3">
         <v>28</v>
@@ -1009,75 +1000,75 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1090,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,155 +1116,155 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="R1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="V1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="Z2" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -1282,40 +1273,40 @@
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J3" s="11">
         <v>1337</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L3" s="11">
         <v>420</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N3" s="11">
         <v>420</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P3" s="11">
         <v>1337</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="T3" s="11">
         <v>3</v>
@@ -1324,101 +1315,101 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="W3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="AA3" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1453,163 +1444,163 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1638,48 +1629,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
